--- a/data/99. analyzes/excel/pharmas/nach_hco_hcp_rnd_2017.xlsx
+++ b/data/99. analyzes/excel/pharmas/nach_hco_hcp_rnd_2017.xlsx
@@ -137,9 +137,6 @@
     <t>HRA Pharma</t>
   </si>
   <si>
-    <t>Hoffmann-La Roche</t>
-  </si>
-  <si>
     <t>Janssen Pharmaceutica</t>
   </si>
   <si>
@@ -189,6 +186,9 @@
   </si>
   <si>
     <t>Pierre Fabre</t>
+  </si>
+  <si>
+    <t>Roche Pharma AG</t>
   </si>
   <si>
     <t>Sandoz Pharmaceuticals AG</t>
@@ -2951,28 +2951,28 @@
         <v>11</v>
       </c>
       <c r="C78" t="n">
-        <v>684680.12</v>
+        <v>1750375</v>
       </c>
       <c r="D78" t="n">
-        <v>2938241.75</v>
+        <v>1150960</v>
       </c>
       <c r="E78" t="n">
-        <v>45413.22</v>
+        <v>0</v>
       </c>
       <c r="F78" t="n">
-        <v>138595.16</v>
+        <v>0</v>
       </c>
       <c r="G78" t="n">
-        <v>444370.66</v>
+        <v>246980</v>
       </c>
       <c r="H78" t="n">
-        <v>44210.35</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
       <c r="J78" t="n">
-        <v>4295511.26</v>
+        <v>3148315</v>
       </c>
     </row>
     <row r="79" spans="1:10">
@@ -2987,22 +2987,22 @@
         <v>0</v>
       </c>
       <c r="E79" t="n">
-        <v>74116.17</v>
+        <v>23118</v>
       </c>
       <c r="F79" t="n">
-        <v>135622.77</v>
+        <v>63953</v>
       </c>
       <c r="G79" t="n">
-        <v>307997.3</v>
+        <v>84644</v>
       </c>
       <c r="H79" t="n">
-        <v>31414.88</v>
+        <v>16383</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
       <c r="J79" t="n">
-        <v>549151.12</v>
+        <v>188098</v>
       </c>
     </row>
     <row r="80" spans="1:10">
@@ -3029,10 +3029,10 @@
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>9026015.279999999</v>
+        <v>1291864</v>
       </c>
       <c r="J80" t="n">
-        <v>9026015.279999999</v>
+        <v>1291864</v>
       </c>
     </row>
     <row r="81" spans="1:10">
@@ -3043,19 +3043,19 @@
         <v>11</v>
       </c>
       <c r="C81" t="n">
-        <v>1750375</v>
+        <v>5000</v>
       </c>
       <c r="D81" t="n">
-        <v>1150960</v>
+        <v>394767.46</v>
       </c>
       <c r="E81" t="n">
-        <v>0</v>
+        <v>3330</v>
       </c>
       <c r="F81" t="n">
-        <v>0</v>
+        <v>55500</v>
       </c>
       <c r="G81" t="n">
-        <v>246980</v>
+        <v>1250</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3064,7 +3064,7 @@
         <v>0</v>
       </c>
       <c r="J81" t="n">
-        <v>3148315</v>
+        <v>459847.46</v>
       </c>
     </row>
     <row r="82" spans="1:10">
@@ -3079,90 +3079,90 @@
         <v>0</v>
       </c>
       <c r="E82" t="n">
-        <v>23118</v>
+        <v>1863.31</v>
       </c>
       <c r="F82" t="n">
-        <v>63953</v>
+        <v>4167.62</v>
       </c>
       <c r="G82" t="n">
-        <v>84644</v>
+        <v>34575.9</v>
       </c>
       <c r="H82" t="n">
-        <v>16383</v>
+        <v>1800.12</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
       <c r="J82" t="n">
-        <v>188098</v>
+        <v>42406.95</v>
       </c>
     </row>
     <row r="83" spans="1:10">
-      <c r="A83" s="1" t="n"/>
+      <c r="A83" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="B83" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C83" t="n">
         <v>0</v>
       </c>
       <c r="D83" t="n">
-        <v>0</v>
+        <v>318270</v>
       </c>
       <c r="E83" t="n">
-        <v>0</v>
+        <v>1172</v>
       </c>
       <c r="F83" t="n">
-        <v>0</v>
+        <v>2290</v>
       </c>
       <c r="G83" t="n">
-        <v>0</v>
+        <v>6650</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>312</v>
       </c>
       <c r="I83" t="n">
-        <v>1291864</v>
+        <v>0</v>
       </c>
       <c r="J83" t="n">
-        <v>1291864</v>
+        <v>328694</v>
       </c>
     </row>
     <row r="84" spans="1:10">
-      <c r="A84" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="A84" s="1" t="n"/>
       <c r="B84" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C84" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="D84" t="n">
-        <v>394767.46</v>
+        <v>0</v>
       </c>
       <c r="E84" t="n">
-        <v>3330</v>
+        <v>28944</v>
       </c>
       <c r="F84" t="n">
-        <v>55500</v>
+        <v>74750</v>
       </c>
       <c r="G84" t="n">
-        <v>1250</v>
+        <v>88679</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
       <c r="J84" t="n">
-        <v>459847.46</v>
+        <v>192383</v>
       </c>
     </row>
     <row r="85" spans="1:10">
       <c r="A85" s="1" t="n"/>
       <c r="B85" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C85" t="n">
         <v>0</v>
@@ -3171,22 +3171,22 @@
         <v>0</v>
       </c>
       <c r="E85" t="n">
-        <v>1863.31</v>
+        <v>0</v>
       </c>
       <c r="F85" t="n">
-        <v>4167.62</v>
+        <v>0</v>
       </c>
       <c r="G85" t="n">
-        <v>34575.9</v>
+        <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>1800.12</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
+        <v>33390.25</v>
       </c>
       <c r="J85" t="n">
-        <v>42406.95</v>
+        <v>33390.25</v>
       </c>
     </row>
     <row r="86" spans="1:10">
@@ -3197,28 +3197,28 @@
         <v>11</v>
       </c>
       <c r="C86" t="n">
-        <v>0</v>
+        <v>1248442.04</v>
       </c>
       <c r="D86" t="n">
-        <v>318270</v>
+        <v>3136656.31</v>
       </c>
       <c r="E86" t="n">
-        <v>1172</v>
+        <v>73403.71000000001</v>
       </c>
       <c r="F86" t="n">
-        <v>2290</v>
+        <v>240469.28</v>
       </c>
       <c r="G86" t="n">
-        <v>6650</v>
+        <v>357263.31</v>
       </c>
       <c r="H86" t="n">
-        <v>312</v>
+        <v>19467.32</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
       <c r="J86" t="n">
-        <v>328694</v>
+        <v>5075701.97</v>
       </c>
     </row>
     <row r="87" spans="1:10">
@@ -3233,22 +3233,22 @@
         <v>0</v>
       </c>
       <c r="E87" t="n">
-        <v>28944</v>
+        <v>21085.85</v>
       </c>
       <c r="F87" t="n">
-        <v>74750</v>
+        <v>123459</v>
       </c>
       <c r="G87" t="n">
-        <v>88679</v>
+        <v>385433.35</v>
       </c>
       <c r="H87" t="n">
-        <v>10</v>
+        <v>32145.57</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
       <c r="J87" t="n">
-        <v>192383</v>
+        <v>562123.77</v>
       </c>
     </row>
     <row r="88" spans="1:10">
@@ -3275,10 +3275,10 @@
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>33390.25</v>
+        <v>3436188.36</v>
       </c>
       <c r="J88" t="n">
-        <v>33390.25</v>
+        <v>3436188.36</v>
       </c>
     </row>
     <row r="89" spans="1:10">
@@ -3289,28 +3289,28 @@
         <v>11</v>
       </c>
       <c r="C89" t="n">
-        <v>1248442.04</v>
+        <v>716</v>
       </c>
       <c r="D89" t="n">
-        <v>3136656.31</v>
+        <v>200597</v>
       </c>
       <c r="E89" t="n">
-        <v>73403.71000000001</v>
+        <v>1217.35</v>
       </c>
       <c r="F89" t="n">
-        <v>240469.28</v>
+        <v>2947.4</v>
       </c>
       <c r="G89" t="n">
-        <v>357263.31</v>
+        <v>1000</v>
       </c>
       <c r="H89" t="n">
-        <v>19467.32</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
       <c r="J89" t="n">
-        <v>5075701.97</v>
+        <v>206477.75</v>
       </c>
     </row>
     <row r="90" spans="1:10">
@@ -3322,37 +3322,39 @@
         <v>0</v>
       </c>
       <c r="D90" t="n">
-        <v>0</v>
+        <v>2944</v>
       </c>
       <c r="E90" t="n">
-        <v>21085.85</v>
+        <v>3171.7</v>
       </c>
       <c r="F90" t="n">
-        <v>123459</v>
+        <v>5884.44</v>
       </c>
       <c r="G90" t="n">
-        <v>385433.35</v>
+        <v>5700</v>
       </c>
       <c r="H90" t="n">
-        <v>32145.57</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
       <c r="J90" t="n">
-        <v>562123.77</v>
+        <v>17700.14</v>
       </c>
     </row>
     <row r="91" spans="1:10">
-      <c r="A91" s="1" t="n"/>
+      <c r="A91" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="B91" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C91" t="n">
         <v>0</v>
       </c>
       <c r="D91" t="n">
-        <v>0</v>
+        <v>629252</v>
       </c>
       <c r="E91" t="n">
         <v>0</v>
@@ -3361,116 +3363,114 @@
         <v>0</v>
       </c>
       <c r="G91" t="n">
-        <v>0</v>
+        <v>6140</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>3436188.36</v>
+        <v>0</v>
       </c>
       <c r="J91" t="n">
-        <v>3436188.36</v>
+        <v>635392</v>
       </c>
     </row>
     <row r="92" spans="1:10">
-      <c r="A92" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="A92" s="1" t="n"/>
       <c r="B92" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C92" t="n">
-        <v>716</v>
+        <v>0</v>
       </c>
       <c r="D92" t="n">
-        <v>200597</v>
+        <v>0</v>
       </c>
       <c r="E92" t="n">
-        <v>1217.35</v>
+        <v>2821</v>
       </c>
       <c r="F92" t="n">
-        <v>2947.4</v>
+        <v>0</v>
       </c>
       <c r="G92" t="n">
-        <v>1000</v>
+        <v>97855</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>454</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
       <c r="J92" t="n">
-        <v>206477.75</v>
+        <v>101130</v>
       </c>
     </row>
     <row r="93" spans="1:10">
-      <c r="A93" s="1" t="n"/>
+      <c r="A93" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="B93" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C93" t="n">
-        <v>0</v>
+        <v>5053933.61</v>
       </c>
       <c r="D93" t="n">
-        <v>2944</v>
+        <v>1209211.03</v>
       </c>
       <c r="E93" t="n">
-        <v>3171.7</v>
+        <v>14790.61</v>
       </c>
       <c r="F93" t="n">
-        <v>5884.44</v>
+        <v>60100.49</v>
       </c>
       <c r="G93" t="n">
-        <v>5700</v>
+        <v>82677.82000000001</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2308.7</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
       <c r="J93" t="n">
-        <v>17700.14</v>
+        <v>6423022.26</v>
       </c>
     </row>
     <row r="94" spans="1:10">
-      <c r="A94" s="1" t="s">
-        <v>46</v>
-      </c>
+      <c r="A94" s="1" t="n"/>
       <c r="B94" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C94" t="n">
         <v>0</v>
       </c>
       <c r="D94" t="n">
-        <v>629252</v>
+        <v>0</v>
       </c>
       <c r="E94" t="n">
-        <v>0</v>
+        <v>31770.52</v>
       </c>
       <c r="F94" t="n">
-        <v>0</v>
+        <v>93602.39</v>
       </c>
       <c r="G94" t="n">
-        <v>6140</v>
+        <v>230682.9</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2023.61</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
       <c r="J94" t="n">
-        <v>635392</v>
+        <v>358079.42</v>
       </c>
     </row>
     <row r="95" spans="1:10">
       <c r="A95" s="1" t="n"/>
       <c r="B95" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C95" t="n">
         <v>0</v>
@@ -3479,22 +3479,22 @@
         <v>0</v>
       </c>
       <c r="E95" t="n">
-        <v>2821</v>
+        <v>0</v>
       </c>
       <c r="F95" t="n">
         <v>0</v>
       </c>
       <c r="G95" t="n">
-        <v>97855</v>
+        <v>0</v>
       </c>
       <c r="H95" t="n">
-        <v>454</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>0</v>
+        <v>308176.92</v>
       </c>
       <c r="J95" t="n">
-        <v>101130</v>
+        <v>308176.92</v>
       </c>
     </row>
     <row r="96" spans="1:10">
@@ -3505,28 +3505,28 @@
         <v>11</v>
       </c>
       <c r="C96" t="n">
-        <v>5053933.61</v>
+        <v>676329</v>
       </c>
       <c r="D96" t="n">
-        <v>1209211.03</v>
+        <v>0</v>
       </c>
       <c r="E96" t="n">
-        <v>14790.61</v>
+        <v>0</v>
       </c>
       <c r="F96" t="n">
-        <v>60100.49</v>
+        <v>0</v>
       </c>
       <c r="G96" t="n">
-        <v>82677.82000000001</v>
+        <v>0</v>
       </c>
       <c r="H96" t="n">
-        <v>2308.7</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
       <c r="J96" t="n">
-        <v>6423022.26</v>
+        <v>676329</v>
       </c>
     </row>
     <row r="97" spans="1:10">
@@ -3541,22 +3541,22 @@
         <v>0</v>
       </c>
       <c r="E97" t="n">
-        <v>31770.52</v>
+        <v>41753</v>
       </c>
       <c r="F97" t="n">
-        <v>93602.39</v>
+        <v>87263</v>
       </c>
       <c r="G97" t="n">
-        <v>230682.9</v>
+        <v>38331</v>
       </c>
       <c r="H97" t="n">
-        <v>2023.61</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
       <c r="J97" t="n">
-        <v>358079.42</v>
+        <v>167347</v>
       </c>
     </row>
     <row r="98" spans="1:10">
@@ -3583,10 +3583,10 @@
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>308176.92</v>
+        <v>118000</v>
       </c>
       <c r="J98" t="n">
-        <v>308176.92</v>
+        <v>118000</v>
       </c>
     </row>
     <row r="99" spans="1:10">
@@ -3597,10 +3597,10 @@
         <v>11</v>
       </c>
       <c r="C99" t="n">
-        <v>676329</v>
+        <v>0</v>
       </c>
       <c r="D99" t="n">
-        <v>0</v>
+        <v>313215</v>
       </c>
       <c r="E99" t="n">
         <v>0</v>
@@ -3609,7 +3609,7 @@
         <v>0</v>
       </c>
       <c r="G99" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3618,7 +3618,7 @@
         <v>0</v>
       </c>
       <c r="J99" t="n">
-        <v>676329</v>
+        <v>317215</v>
       </c>
     </row>
     <row r="100" spans="1:10">
@@ -3633,13 +3633,13 @@
         <v>0</v>
       </c>
       <c r="E100" t="n">
-        <v>41753</v>
+        <v>4840.8</v>
       </c>
       <c r="F100" t="n">
-        <v>87263</v>
+        <v>6331</v>
       </c>
       <c r="G100" t="n">
-        <v>38331</v>
+        <v>3200</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3648,19 +3648,21 @@
         <v>0</v>
       </c>
       <c r="J100" t="n">
-        <v>167347</v>
+        <v>14371.8</v>
       </c>
     </row>
     <row r="101" spans="1:10">
-      <c r="A101" s="1" t="n"/>
+      <c r="A101" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="B101" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C101" t="n">
         <v>0</v>
       </c>
       <c r="D101" t="n">
-        <v>0</v>
+        <v>11800</v>
       </c>
       <c r="E101" t="n">
         <v>0</v>
@@ -3675,24 +3677,22 @@
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>118000</v>
+        <v>0</v>
       </c>
       <c r="J101" t="n">
-        <v>118000</v>
+        <v>11800</v>
       </c>
     </row>
     <row r="102" spans="1:10">
-      <c r="A102" s="1" t="s">
-        <v>49</v>
-      </c>
+      <c r="A102" s="1" t="n"/>
       <c r="B102" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C102" t="n">
         <v>0</v>
       </c>
       <c r="D102" t="n">
-        <v>313215</v>
+        <v>0</v>
       </c>
       <c r="E102" t="n">
         <v>0</v>
@@ -3701,7 +3701,7 @@
         <v>0</v>
       </c>
       <c r="G102" t="n">
-        <v>4000</v>
+        <v>900</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3710,28 +3710,30 @@
         <v>0</v>
       </c>
       <c r="J102" t="n">
-        <v>317215</v>
+        <v>900</v>
       </c>
     </row>
     <row r="103" spans="1:10">
-      <c r="A103" s="1" t="n"/>
+      <c r="A103" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="B103" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C103" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="D103" t="n">
-        <v>0</v>
+        <v>61024.6</v>
       </c>
       <c r="E103" t="n">
-        <v>4840.8</v>
+        <v>0</v>
       </c>
       <c r="F103" t="n">
-        <v>6331</v>
+        <v>0</v>
       </c>
       <c r="G103" t="n">
-        <v>3200</v>
+        <v>0</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -3740,45 +3742,43 @@
         <v>0</v>
       </c>
       <c r="J103" t="n">
-        <v>14371.8</v>
+        <v>66024.60000000001</v>
       </c>
     </row>
     <row r="104" spans="1:10">
-      <c r="A104" s="1" t="s">
-        <v>50</v>
-      </c>
+      <c r="A104" s="1" t="n"/>
       <c r="B104" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C104" t="n">
         <v>0</v>
       </c>
       <c r="D104" t="n">
-        <v>11800</v>
+        <v>0</v>
       </c>
       <c r="E104" t="n">
         <v>0</v>
       </c>
       <c r="F104" t="n">
-        <v>0</v>
+        <v>892.9299999999999</v>
       </c>
       <c r="G104" t="n">
-        <v>0</v>
+        <v>4345</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>60.54</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
       <c r="J104" t="n">
-        <v>11800</v>
+        <v>5298.47</v>
       </c>
     </row>
     <row r="105" spans="1:10">
       <c r="A105" s="1" t="n"/>
       <c r="B105" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C105" t="n">
         <v>0</v>
@@ -3793,16 +3793,16 @@
         <v>0</v>
       </c>
       <c r="G105" t="n">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>0</v>
+        <v>15951</v>
       </c>
       <c r="J105" t="n">
-        <v>900</v>
+        <v>15951</v>
       </c>
     </row>
     <row r="106" spans="1:10">
@@ -3813,28 +3813,28 @@
         <v>11</v>
       </c>
       <c r="C106" t="n">
-        <v>5000</v>
+        <v>3740958.59</v>
       </c>
       <c r="D106" t="n">
-        <v>61024.6</v>
+        <v>5846360.98</v>
       </c>
       <c r="E106" t="n">
-        <v>0</v>
+        <v>380967.68</v>
       </c>
       <c r="F106" t="n">
-        <v>0</v>
+        <v>24771.01</v>
       </c>
       <c r="G106" t="n">
-        <v>0</v>
+        <v>1058016.6</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>20229.39</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
       <c r="J106" t="n">
-        <v>66024.60000000001</v>
+        <v>11071304.25</v>
       </c>
     </row>
     <row r="107" spans="1:10">
@@ -3849,22 +3849,22 @@
         <v>0</v>
       </c>
       <c r="E107" t="n">
-        <v>0</v>
+        <v>41765.95</v>
       </c>
       <c r="F107" t="n">
-        <v>892.9299999999999</v>
+        <v>36482.23</v>
       </c>
       <c r="G107" t="n">
-        <v>4345</v>
+        <v>581946.9300000001</v>
       </c>
       <c r="H107" t="n">
-        <v>60.54</v>
+        <v>26118.2</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
       <c r="J107" t="n">
-        <v>5298.47</v>
+        <v>686313.3100000001</v>
       </c>
     </row>
     <row r="108" spans="1:10">
@@ -3891,10 +3891,10 @@
         <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>15951</v>
+        <v>8141826.61</v>
       </c>
       <c r="J108" t="n">
-        <v>15951</v>
+        <v>8141826.61</v>
       </c>
     </row>
     <row r="109" spans="1:10">
@@ -3905,28 +3905,28 @@
         <v>11</v>
       </c>
       <c r="C109" t="n">
-        <v>3740958.59</v>
+        <v>1175869</v>
       </c>
       <c r="D109" t="n">
-        <v>5846360.98</v>
+        <v>196816</v>
       </c>
       <c r="E109" t="n">
-        <v>380967.68</v>
+        <v>23901</v>
       </c>
       <c r="F109" t="n">
-        <v>24771.01</v>
+        <v>43504</v>
       </c>
       <c r="G109" t="n">
-        <v>1058016.6</v>
+        <v>45049</v>
       </c>
       <c r="H109" t="n">
-        <v>20229.39</v>
+        <v>1128</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
       <c r="J109" t="n">
-        <v>11071304.25</v>
+        <v>1486267</v>
       </c>
     </row>
     <row r="110" spans="1:10">
@@ -3941,22 +3941,22 @@
         <v>0</v>
       </c>
       <c r="E110" t="n">
-        <v>41765.95</v>
+        <v>71534</v>
       </c>
       <c r="F110" t="n">
-        <v>36482.23</v>
+        <v>255792</v>
       </c>
       <c r="G110" t="n">
-        <v>581946.9300000001</v>
+        <v>142582</v>
       </c>
       <c r="H110" t="n">
-        <v>26118.2</v>
+        <v>16098.6</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
       <c r="J110" t="n">
-        <v>686313.3100000001</v>
+        <v>486006.6</v>
       </c>
     </row>
     <row r="111" spans="1:10">
@@ -3983,10 +3983,10 @@
         <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>8141826.61</v>
+        <v>424528</v>
       </c>
       <c r="J111" t="n">
-        <v>8141826.61</v>
+        <v>424528</v>
       </c>
     </row>
     <row r="112" spans="1:10">
@@ -3997,28 +3997,28 @@
         <v>11</v>
       </c>
       <c r="C112" t="n">
-        <v>1175869</v>
+        <v>0</v>
       </c>
       <c r="D112" t="n">
-        <v>196816</v>
+        <v>136866</v>
       </c>
       <c r="E112" t="n">
-        <v>23901</v>
+        <v>2258.91</v>
       </c>
       <c r="F112" t="n">
-        <v>43504</v>
+        <v>3401.12</v>
       </c>
       <c r="G112" t="n">
-        <v>45049</v>
+        <v>1700</v>
       </c>
       <c r="H112" t="n">
-        <v>1128</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
       <c r="J112" t="n">
-        <v>1486267</v>
+        <v>144226.03</v>
       </c>
     </row>
     <row r="113" spans="1:10">
@@ -4033,34 +4033,36 @@
         <v>0</v>
       </c>
       <c r="E113" t="n">
-        <v>71534</v>
+        <v>13082.77</v>
       </c>
       <c r="F113" t="n">
-        <v>255792</v>
+        <v>23195.28</v>
       </c>
       <c r="G113" t="n">
-        <v>142582</v>
+        <v>13735</v>
       </c>
       <c r="H113" t="n">
-        <v>16098.6</v>
+        <v>0</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
       <c r="J113" t="n">
-        <v>486006.6</v>
+        <v>50013.05</v>
       </c>
     </row>
     <row r="114" spans="1:10">
-      <c r="A114" s="1" t="n"/>
+      <c r="A114" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="B114" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C114" t="n">
         <v>0</v>
       </c>
       <c r="D114" t="n">
-        <v>0</v>
+        <v>140962.8</v>
       </c>
       <c r="E114" t="n">
         <v>0</v>
@@ -4069,54 +4071,52 @@
         <v>0</v>
       </c>
       <c r="G114" t="n">
-        <v>0</v>
+        <v>19640</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
       </c>
       <c r="I114" t="n">
-        <v>424528</v>
+        <v>0</v>
       </c>
       <c r="J114" t="n">
-        <v>424528</v>
+        <v>160602.8</v>
       </c>
     </row>
     <row r="115" spans="1:10">
-      <c r="A115" s="1" t="s">
-        <v>54</v>
-      </c>
+      <c r="A115" s="1" t="n"/>
       <c r="B115" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C115" t="n">
         <v>0</v>
       </c>
       <c r="D115" t="n">
-        <v>136866</v>
+        <v>0</v>
       </c>
       <c r="E115" t="n">
-        <v>2258.91</v>
+        <v>19832.16</v>
       </c>
       <c r="F115" t="n">
-        <v>3401.12</v>
+        <v>19408.93</v>
       </c>
       <c r="G115" t="n">
-        <v>1700</v>
+        <v>29934.65</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>1250.86</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
       <c r="J115" t="n">
-        <v>144226.03</v>
+        <v>70426.60000000001</v>
       </c>
     </row>
     <row r="116" spans="1:10">
       <c r="A116" s="1" t="n"/>
       <c r="B116" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C116" t="n">
         <v>0</v>
@@ -4125,22 +4125,22 @@
         <v>0</v>
       </c>
       <c r="E116" t="n">
-        <v>13082.77</v>
+        <v>0</v>
       </c>
       <c r="F116" t="n">
-        <v>23195.28</v>
+        <v>0</v>
       </c>
       <c r="G116" t="n">
-        <v>13735</v>
+        <v>0</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>0</v>
+        <v>28362.67</v>
       </c>
       <c r="J116" t="n">
-        <v>50013.05</v>
+        <v>28362.67</v>
       </c>
     </row>
     <row r="117" spans="1:10">
@@ -4151,28 +4151,28 @@
         <v>11</v>
       </c>
       <c r="C117" t="n">
-        <v>0</v>
+        <v>1752470</v>
       </c>
       <c r="D117" t="n">
-        <v>140962.8</v>
+        <v>4787825</v>
       </c>
       <c r="E117" t="n">
-        <v>0</v>
+        <v>9946</v>
       </c>
       <c r="F117" t="n">
-        <v>0</v>
+        <v>68616</v>
       </c>
       <c r="G117" t="n">
-        <v>19640</v>
+        <v>308577</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>5856</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
       <c r="J117" t="n">
-        <v>160602.8</v>
+        <v>6933290</v>
       </c>
     </row>
     <row r="118" spans="1:10">
@@ -4184,25 +4184,25 @@
         <v>0</v>
       </c>
       <c r="D118" t="n">
-        <v>0</v>
+        <v>1476</v>
       </c>
       <c r="E118" t="n">
-        <v>19832.16</v>
+        <v>75489</v>
       </c>
       <c r="F118" t="n">
-        <v>19408.93</v>
+        <v>241828</v>
       </c>
       <c r="G118" t="n">
-        <v>29934.65</v>
+        <v>262860</v>
       </c>
       <c r="H118" t="n">
-        <v>1250.86</v>
+        <v>4493</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
       <c r="J118" t="n">
-        <v>70426.60000000001</v>
+        <v>586146</v>
       </c>
     </row>
     <row r="119" spans="1:10">
@@ -4229,10 +4229,10 @@
         <v>0</v>
       </c>
       <c r="I119" t="n">
-        <v>28362.67</v>
+        <v>2506402</v>
       </c>
       <c r="J119" t="n">
-        <v>28362.67</v>
+        <v>2506402</v>
       </c>
     </row>
     <row r="120" spans="1:10">
@@ -4243,28 +4243,28 @@
         <v>11</v>
       </c>
       <c r="C120" t="n">
-        <v>1752470</v>
+        <v>0</v>
       </c>
       <c r="D120" t="n">
-        <v>4787825</v>
+        <v>125123.91</v>
       </c>
       <c r="E120" t="n">
-        <v>9946</v>
+        <v>49280.18</v>
       </c>
       <c r="F120" t="n">
-        <v>68616</v>
+        <v>5995.39</v>
       </c>
       <c r="G120" t="n">
-        <v>308577</v>
+        <v>0</v>
       </c>
       <c r="H120" t="n">
-        <v>5856</v>
+        <v>0</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
       <c r="J120" t="n">
-        <v>6933290</v>
+        <v>180399.48</v>
       </c>
     </row>
     <row r="121" spans="1:10">
@@ -4276,93 +4276,93 @@
         <v>0</v>
       </c>
       <c r="D121" t="n">
-        <v>1476</v>
+        <v>0</v>
       </c>
       <c r="E121" t="n">
-        <v>75489</v>
+        <v>9191.110000000001</v>
       </c>
       <c r="F121" t="n">
-        <v>241828</v>
+        <v>20517.67</v>
       </c>
       <c r="G121" t="n">
-        <v>262860</v>
+        <v>10811.55</v>
       </c>
       <c r="H121" t="n">
-        <v>4493</v>
+        <v>400.93</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
       <c r="J121" t="n">
-        <v>586146</v>
+        <v>40921.26</v>
       </c>
     </row>
     <row r="122" spans="1:10">
-      <c r="A122" s="1" t="n"/>
+      <c r="A122" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="B122" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C122" t="n">
-        <v>0</v>
+        <v>684680.12</v>
       </c>
       <c r="D122" t="n">
-        <v>0</v>
+        <v>2938241.75</v>
       </c>
       <c r="E122" t="n">
-        <v>0</v>
+        <v>45413.22</v>
       </c>
       <c r="F122" t="n">
-        <v>0</v>
+        <v>138595.16</v>
       </c>
       <c r="G122" t="n">
-        <v>0</v>
+        <v>444370.66</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>44210.35</v>
       </c>
       <c r="I122" t="n">
-        <v>2506402</v>
+        <v>0</v>
       </c>
       <c r="J122" t="n">
-        <v>2506402</v>
+        <v>4295511.26</v>
       </c>
     </row>
     <row r="123" spans="1:10">
-      <c r="A123" s="1" t="s">
-        <v>57</v>
-      </c>
+      <c r="A123" s="1" t="n"/>
       <c r="B123" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C123" t="n">
         <v>0</v>
       </c>
       <c r="D123" t="n">
-        <v>125123.91</v>
+        <v>0</v>
       </c>
       <c r="E123" t="n">
-        <v>49280.18</v>
+        <v>74116.17</v>
       </c>
       <c r="F123" t="n">
-        <v>5995.39</v>
+        <v>135622.77</v>
       </c>
       <c r="G123" t="n">
-        <v>0</v>
+        <v>307997.3</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>31414.88</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
       <c r="J123" t="n">
-        <v>180399.48</v>
+        <v>549151.12</v>
       </c>
     </row>
     <row r="124" spans="1:10">
       <c r="A124" s="1" t="n"/>
       <c r="B124" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C124" t="n">
         <v>0</v>
@@ -4371,22 +4371,22 @@
         <v>0</v>
       </c>
       <c r="E124" t="n">
-        <v>9191.110000000001</v>
+        <v>0</v>
       </c>
       <c r="F124" t="n">
-        <v>20517.67</v>
+        <v>0</v>
       </c>
       <c r="G124" t="n">
-        <v>10811.55</v>
+        <v>0</v>
       </c>
       <c r="H124" t="n">
-        <v>400.93</v>
+        <v>0</v>
       </c>
       <c r="I124" t="n">
-        <v>0</v>
+        <v>9026015.279999999</v>
       </c>
       <c r="J124" t="n">
-        <v>40921.26</v>
+        <v>9026015.279999999</v>
       </c>
     </row>
     <row r="125" spans="1:10">
@@ -5279,23 +5279,23 @@
     <mergeCell ref="A71:A73"/>
     <mergeCell ref="A74:A76"/>
     <mergeCell ref="A78:A80"/>
-    <mergeCell ref="A81:A83"/>
-    <mergeCell ref="A84:A85"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="A83:A85"/>
     <mergeCell ref="A86:A88"/>
-    <mergeCell ref="A89:A91"/>
-    <mergeCell ref="A92:A93"/>
-    <mergeCell ref="A94:A95"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="A93:A95"/>
     <mergeCell ref="A96:A98"/>
-    <mergeCell ref="A99:A101"/>
-    <mergeCell ref="A102:A103"/>
-    <mergeCell ref="A104:A105"/>
+    <mergeCell ref="A99:A100"/>
+    <mergeCell ref="A101:A102"/>
+    <mergeCell ref="A103:A105"/>
     <mergeCell ref="A106:A108"/>
     <mergeCell ref="A109:A111"/>
-    <mergeCell ref="A112:A114"/>
-    <mergeCell ref="A115:A116"/>
+    <mergeCell ref="A112:A113"/>
+    <mergeCell ref="A114:A116"/>
     <mergeCell ref="A117:A119"/>
-    <mergeCell ref="A120:A122"/>
-    <mergeCell ref="A123:A124"/>
+    <mergeCell ref="A120:A121"/>
+    <mergeCell ref="A122:A124"/>
     <mergeCell ref="A125:A127"/>
     <mergeCell ref="A128:A130"/>
     <mergeCell ref="A131:A133"/>
